--- a/outputs-r202/c__Clostridia_A.xlsx
+++ b/outputs-r202/c__Clostridia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,44 +447,48 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>prediction</t>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG093.fasta</t>
+          <t>RUG343.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>-44057.22098168613</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>o__Christensenellales</t>
+          <t>o__Christensenellales(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG343.fasta</t>
+          <t>RUG585.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>229487.0820062841</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -495,34 +499,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG585.fasta</t>
+          <t>RUG774.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>183045.9402811684</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Christensenellales</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>o__Christensenellales</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG774.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>o__Christensenellales</t>
         </is>

--- a/outputs-r202/c__Clostridia_A.xlsx
+++ b/outputs-r202/c__Clostridia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG343.fasta</t>
+          <t>RUG585.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-44057.22098168613</v>
+        <v>229487.0820062841</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,18 +472,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>o__Christensenellales(reject)</t>
+          <t>o__Christensenellales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG585.fasta</t>
+          <t>RUG774.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229487.0820062841</v>
+        <v>183045.9402811684</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -491,26 +491,6 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>o__Christensenellales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG774.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>183045.9402811684</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>o__Christensenellales</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>o__Christensenellales</t>
         </is>
